--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765813FA-B629-4A1D-BF51-57B9A5A913AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2DAC08-EE6A-41CF-B3D6-562F917FBB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{6CB5BDD2-ADFD-4371-9C61-B1ED47AC4FAA}">
+    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{6CB5BDD2-ADFD-4371-9C61-B1ED47AC4FAA}">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{B3DBDD38-97A6-4500-BBD1-E040D4C6F649}">
+    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{B3DBDD38-97A6-4500-BBD1-E040D4C6F649}">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>VVSS, Info Romana, 2023-2024</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>expected result</t>
-  </si>
-  <si>
-    <t>TC3_EC</t>
   </si>
   <si>
     <t>BBT TCs</t>
@@ -327,34 +324,10 @@
     <t>100q</t>
   </si>
   <si>
-    <t>amount not &gt; 0</t>
-  </si>
-  <si>
     <t>type is "Cash" or "Card"</t>
   </si>
   <si>
-    <t>01. type = "Cash"</t>
-  </si>
-  <si>
-    <t>02. type = "Card"</t>
-  </si>
-  <si>
-    <t>03. type = ""</t>
-  </si>
-  <si>
-    <t>04. type = "Bitcoin"</t>
-  </si>
-  <si>
-    <t>05. amount = 0.01</t>
-  </si>
-  <si>
     <t>06. amount = 0</t>
-  </si>
-  <si>
-    <t>07. amount = -0.01</t>
-  </si>
-  <si>
-    <t>06. amount =  Double.MAX_VALUE</t>
   </si>
   <si>
     <t>Card</t>
@@ -396,12 +369,116 @@
   <si>
     <t>1, 4</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF56A8F5"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>addPayment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">table, String type, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">double </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">amount) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">throws </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>PaymentException {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0 &lt; masa &lt; 9</t>
+  </si>
+  <si>
+    <t>01. masa = 0</t>
+  </si>
+  <si>
+    <t>02. masa = 1</t>
+  </si>
+  <si>
+    <t>03. masa = 8</t>
+  </si>
+  <si>
+    <t>04. masa = 9</t>
+  </si>
+  <si>
+    <t>05. amount = 1</t>
+  </si>
+  <si>
+    <t>Error message-Invalid table</t>
+  </si>
+  <si>
+    <t>amount &lt;= 0</t>
+  </si>
+  <si>
+    <t>TC2_BVA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,6 +641,32 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFCF8E6D"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF56A8F5"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1011,7 +1114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1104,68 +1207,133 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1173,22 +1341,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1200,57 +1353,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1260,64 +1398,59 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1629,10 +1762,10 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="4" max="4" width="22.54296875" customWidth="1"/>
     <col min="9" max="9" width="32.81640625" customWidth="1"/>
@@ -1641,27 +1774,27 @@
     <col min="14" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C1" s="41" t="s">
+    <row r="1" spans="2:10">
+      <c r="C1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
       <c r="H1" s="37" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="37"/>
       <c r="J1" s="37"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="H2" s="44" t="s">
+    <row r="2" spans="2:10">
+      <c r="H2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+    </row>
+    <row r="3" spans="2:10">
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
         <v>3</v>
@@ -1670,29 +1803,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J4" s="2">
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J5" s="2">
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10">
       <c r="B6" s="25"/>
       <c r="H6" s="2" t="s">
         <v>7</v>
@@ -1700,64 +1833,67 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" ht="14.5" customHeight="1"/>
+    <row r="8" spans="2:10">
       <c r="B8" s="35"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10">
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="101" t="s">
-        <v>63</v>
+    <row r="11" spans="2:10">
+      <c r="B11" s="40" t="s">
+        <v>62</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10">
+      <c r="B13" s="112" t="s">
+        <v>82</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:10">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="35"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15">
       <c r="C18" s="33"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15">
       <c r="B20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1772,7 +1908,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15">
       <c r="B21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1787,23 +1923,23 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="14.5" customHeight="1">
       <c r="A22" s="34"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="C24" s="36"/>
     </row>
   </sheetData>
@@ -1824,11 +1960,11 @@
   </sheetPr>
   <dimension ref="B1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J15:J17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7265625" bestFit="1" customWidth="1"/>
@@ -1844,42 +1980,42 @@
     <col min="13" max="13" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B1" s="41" t="s">
+    <row r="1" spans="2:13">
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B3" s="109" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="111"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B5" s="63" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="67"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="G5" s="64" t="s">
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="G5" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+    </row>
+    <row r="6" spans="2:13">
       <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
@@ -1892,87 +2028,87 @@
       <c r="E6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="65" t="s">
+      <c r="G6" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="54" t="s">
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="54"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="M6" s="75"/>
+    </row>
+    <row r="7" spans="2:13">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="59" t="s">
-        <v>74</v>
+      <c r="C7" s="57" t="s">
+        <v>72</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="53"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="73"/>
       <c r="I7" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" s="50" t="s">
+      <c r="L7" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="51"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="M7" s="62"/>
+    </row>
+    <row r="8" spans="2:13">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="60"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G8" s="14">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K8" s="2">
         <v>100</v>
       </c>
-      <c r="L8" s="46" t="s">
+      <c r="L8" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="47"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="M8" s="64"/>
+    </row>
+    <row r="9" spans="2:13">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="59" t="s">
-        <v>67</v>
+      <c r="C9" s="57" t="s">
+        <v>66</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" s="4"/>
       <c r="G9" s="14">
@@ -1990,25 +2126,25 @@
       <c r="K9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="46" t="s">
+      <c r="L9" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="47"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="M9" s="64"/>
+    </row>
+    <row r="10" spans="2:13">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="60"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="102">
+        <v>67</v>
+      </c>
+      <c r="G10" s="41">
         <v>3</v>
       </c>
-      <c r="H10" s="103" t="s">
-        <v>88</v>
+      <c r="H10" s="42" t="s">
+        <v>79</v>
       </c>
       <c r="I10" s="23">
         <v>1</v>
@@ -2019,23 +2155,23 @@
       <c r="K10" s="23">
         <v>100</v>
       </c>
-      <c r="L10" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="M10" s="68"/>
-    </row>
-    <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L10" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="60"/>
+    </row>
+    <row r="11" spans="2:13" ht="15" customHeight="1">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="59" t="s">
-        <v>69</v>
+      <c r="C11" s="57" t="s">
+        <v>68</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="G11" s="102">
+      <c r="G11" s="41">
         <v>4</v>
       </c>
       <c r="H11" s="23" t="s">
@@ -2050,50 +2186,50 @@
       <c r="K11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="67" t="s">
+      <c r="L11" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="68"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="M11" s="60"/>
+    </row>
+    <row r="12" spans="2:13">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="60"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="102">
+        <v>90</v>
+      </c>
+      <c r="G12" s="41">
         <v>5</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I12" s="23">
         <v>1</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="L12" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="68"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="M12" s="60"/>
+    </row>
+    <row r="13" spans="2:13">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="53" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="112"/>
-      <c r="G13" s="102">
+      <c r="E13" s="47"/>
+      <c r="G13" s="41">
         <v>6</v>
       </c>
       <c r="H13" s="23" t="s">
@@ -2108,31 +2244,31 @@
       <c r="K13" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="67" t="s">
+      <c r="L13" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="68"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="M13" s="60"/>
+    </row>
+    <row r="14" spans="2:13">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="58"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="112"/>
+      <c r="E14" s="47"/>
       <c r="G14" s="11"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="49"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L14" s="54"/>
+      <c r="M14" s="55"/>
+    </row>
+    <row r="15" spans="2:13">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="53" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="4"/>
@@ -2142,14 +2278,14 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="49"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L15" s="54"/>
+      <c r="M15" s="55"/>
+    </row>
+    <row r="16" spans="2:13">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="58"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="G16" s="11"/>
@@ -2157,14 +2293,14 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="49"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L16" s="54"/>
+      <c r="M16" s="55"/>
+    </row>
+    <row r="17" spans="2:13">
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="53" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="4"/>
@@ -2174,14 +2310,14 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="49"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L17" s="54"/>
+      <c r="M17" s="55"/>
+    </row>
+    <row r="18" spans="2:13">
       <c r="B18" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="58"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="G18" s="11"/>
@@ -2189,14 +2325,14 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="49"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L18" s="54"/>
+      <c r="M18" s="55"/>
+    </row>
+    <row r="19" spans="2:13">
       <c r="B19" s="4">
         <v>13</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="53" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="4"/>
@@ -2206,26 +2342,39 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="49"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L19" s="54"/>
+      <c r="M19" s="55"/>
+    </row>
+    <row r="20" spans="2:13">
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="58"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:13">
       <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="F22:G22"/>
@@ -2242,21 +2391,9 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:M5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2267,11 +2404,11 @@
   </sheetPr>
   <dimension ref="B1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
@@ -2288,44 +2425,44 @@
     <col min="15" max="15" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B1" s="41" t="s">
+    <row r="1" spans="2:15">
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B3" s="104" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B5" s="73" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="85"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-    </row>
-    <row r="6" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+    </row>
+    <row r="6" spans="2:15" ht="14.5" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
@@ -2336,61 +2473,61 @@
         <v>28</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="G6" s="65" t="s">
+      <c r="G6" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="69" t="s">
+      <c r="K6" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="69" t="s">
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="71"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B7" s="59">
+      <c r="O6" s="89"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="113">
         <v>1</v>
       </c>
-      <c r="C7" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="53"/>
+      <c r="C7" s="114" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="M7" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="N7" s="50" t="s">
+      <c r="N7" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="51"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B8" s="74"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="2" t="s">
-        <v>76</v>
+      <c r="O7" s="62"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="115"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="23" t="s">
+        <v>85</v>
       </c>
       <c r="G8" s="14">
         <v>1</v>
@@ -2404,43 +2541,49 @@
         <v>1</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="M8" s="8">
         <v>100</v>
       </c>
-      <c r="N8" s="67" t="s">
+      <c r="N8" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="68"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="74"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="2" t="s">
-        <v>77</v>
+      <c r="O8" s="60"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="115"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="23" t="s">
+        <v>86</v>
       </c>
       <c r="G9" s="11">
         <v>2</v>
       </c>
       <c r="H9" s="12">
-        <v>3</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>36</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I9" s="8"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="57"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="74"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="2" t="s">
-        <v>78</v>
+      <c r="K9" s="13">
+        <v>9</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="8">
+        <v>100</v>
+      </c>
+      <c r="N9" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" s="82"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="122"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="23" t="s">
+        <v>87</v>
       </c>
       <c r="G10" s="14">
         <v>3</v>
@@ -2450,28 +2593,28 @@
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8">
+        <v>8</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="8">
         <v>1</v>
       </c>
-      <c r="L10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M10" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="N10" s="67" t="s">
+      <c r="N10" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="68"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="59">
+      <c r="O10" s="60"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="57">
         <v>2</v>
       </c>
-      <c r="C11" s="75" t="s">
-        <v>69</v>
+      <c r="C11" s="77" t="s">
+        <v>68</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G11" s="11">
         <v>4</v>
@@ -2485,21 +2628,21 @@
         <v>1</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="M11" s="13">
         <v>0</v>
       </c>
-      <c r="N11" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="O11" s="68"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="74"/>
-      <c r="C12" s="76"/>
+      <c r="N11" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" s="60"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="76"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G12" s="14">
         <v>5</v>
@@ -2510,16 +2653,14 @@
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
       <c r="M12" s="23"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="68"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="74"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="102">
+      <c r="N12" s="59"/>
+      <c r="O12" s="60"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="76"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="23"/>
+      <c r="G13" s="41">
         <v>6</v>
       </c>
       <c r="H13" s="9"/>
@@ -2528,15 +2669,13 @@
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
       <c r="M13" s="23"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="68"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="74"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="N13" s="59"/>
+      <c r="O13" s="60"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="58"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="2"/>
       <c r="G14" s="14">
         <v>7</v>
       </c>
@@ -2546,16 +2685,14 @@
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
       <c r="M14" s="23"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="68"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="59">
+      <c r="N14" s="59"/>
+      <c r="O14" s="60"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="57">
         <v>3</v>
       </c>
-      <c r="C15" s="75" t="s">
-        <v>22</v>
-      </c>
+      <c r="C15" s="77"/>
       <c r="D15" s="2"/>
       <c r="G15" s="14">
         <v>8</v>
@@ -2566,14 +2703,14 @@
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
       <c r="M15" s="23"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="68"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="74"/>
-      <c r="C16" s="76"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="60"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="76"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="2"/>
-      <c r="G16" s="102">
+      <c r="G16" s="41">
         <v>9</v>
       </c>
       <c r="H16" s="9"/>
@@ -2582,12 +2719,12 @@
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
       <c r="M16" s="23"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="68"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B17" s="74"/>
-      <c r="C17" s="76"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="60"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="76"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="2"/>
       <c r="G17" s="14">
         <v>10</v>
@@ -2598,12 +2735,12 @@
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
       <c r="M17" s="23"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="68"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B18" s="74"/>
-      <c r="C18" s="76"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="60"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="76"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="2"/>
       <c r="G18" s="14">
         <v>11</v>
@@ -2614,14 +2751,14 @@
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
       <c r="M18" s="23"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="68"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B19" s="74"/>
-      <c r="C19" s="76"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="60"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="76"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="2"/>
-      <c r="G19" s="102">
+      <c r="G19" s="41">
         <v>12</v>
       </c>
       <c r="H19" s="9"/>
@@ -2630,12 +2767,12 @@
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
       <c r="M19" s="23"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="68"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B20" s="60"/>
-      <c r="C20" s="77"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="60"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="58"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="2"/>
       <c r="G20" s="14">
         <v>13</v>
@@ -2646,14 +2783,14 @@
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
       <c r="M20" s="23"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="68"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B21" s="59">
+      <c r="N20" s="59"/>
+      <c r="O20" s="60"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="57">
         <v>4</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="77" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -2668,84 +2805,58 @@
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
       <c r="M21" s="23"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="68"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B22" s="74"/>
-      <c r="C22" s="76"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="60"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="76"/>
+      <c r="C22" s="78"/>
       <c r="D22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B23" s="74"/>
-      <c r="C23" s="76"/>
+    <row r="23" spans="2:15">
+      <c r="B23" s="76"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B24" s="74"/>
-      <c r="C24" s="76"/>
+    <row r="24" spans="2:15">
+      <c r="B24" s="76"/>
+      <c r="C24" s="78"/>
       <c r="D24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B25" s="74"/>
-      <c r="C25" s="76"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="76"/>
+      <c r="C25" s="78"/>
       <c r="D25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B26" s="60"/>
-      <c r="C26" s="77"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="81"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="58"/>
+      <c r="C26" s="79"/>
       <c r="D26" s="2" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="I25:M25"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B5:D5"/>
@@ -2756,6 +2867,32 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="N6:O6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="I25:M25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2767,184 +2904,184 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B1:L21"/>
+  <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.54296875" customWidth="1"/>
     <col min="9" max="9" width="30.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" customWidth="1"/>
+    <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B1" s="41" t="s">
+    <row r="1" spans="2:10">
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="100" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="65" t="s">
+      <c r="C4" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="D4" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="E4" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="54" t="s">
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="54"/>
-    </row>
-    <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="92"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="97"/>
+      <c r="J4" s="75"/>
+    </row>
+    <row r="5" spans="2:10" ht="15" thickBot="1">
+      <c r="B5" s="106"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="111"/>
       <c r="F5" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="15" thickTop="1">
       <c r="B6" s="15">
         <v>1</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>43</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>44</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="106">
+      <c r="F6" s="44">
         <v>1</v>
       </c>
-      <c r="G6" s="106" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="106">
+      <c r="G6" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="44">
         <v>100</v>
       </c>
-      <c r="I6" s="107" t="s">
+      <c r="I6" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J6" s="45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="7">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="90"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="106">
+      <c r="F7" s="44">
         <v>1</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="105">
+      <c r="H7" s="43">
         <v>100</v>
       </c>
-      <c r="I7" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I7" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="7">
-        <f t="shared" ref="B8:B13" si="0">B7+1</f>
+        <f t="shared" ref="B8:B14" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="C8" s="103"/>
+      <c r="D8" s="117" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="106">
+      <c r="F8" s="119">
         <v>1</v>
       </c>
-      <c r="G8" s="105" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="108" t="s">
+      <c r="G8" s="119" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="119" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J8" s="120" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="90"/>
+      <c r="C9" s="103"/>
       <c r="D9" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="106" t="s">
+      <c r="F9" s="44" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
@@ -2960,23 +3097,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10">
       <c r="B10" s="7">
-        <f t="shared" si="0"/>
+        <f>B9+1</f>
         <v>5</v>
       </c>
-      <c r="C10" s="90"/>
+      <c r="C10" s="103"/>
       <c r="D10" s="21" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F10" s="7">
         <v>1</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
@@ -2985,233 +3122,240 @@
         <v>20</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="7">
-        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="15">
         <v>6</v>
       </c>
-      <c r="C11" s="90"/>
+      <c r="C11" s="103"/>
       <c r="D11" s="21" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="F11" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H11" s="7">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="7">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="90"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="21" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12" s="7">
+        <v>8</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
       <c r="I12" s="7" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="22" t="s">
+      <c r="C13" s="103"/>
+      <c r="D13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="15" thickBot="1">
+      <c r="B14" s="16">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C14" s="104"/>
+      <c r="D14" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="106" t="s">
+      <c r="F14" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J14" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="18" t="s">
-        <v>49</v>
-      </c>
+    <row r="15" spans="2:10" ht="15" thickTop="1">
+      <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="19"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="2:10" ht="14.5" customHeight="1">
+      <c r="B16" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="81" t="s">
+    <row r="17" spans="2:12" ht="15" thickBot="1">
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="2:12" ht="15" thickTop="1">
+      <c r="C18" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="27" t="s">
+      <c r="H18" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="I18" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="81" t="s">
+      <c r="J18" s="99"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="98"/>
+    </row>
+    <row r="19" spans="2:12" ht="14.5" customHeight="1">
+      <c r="B19" s="100" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="J17" s="82"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="84"/>
-    </row>
-    <row r="18" spans="2:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="95" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="96" t="s">
+      <c r="D19" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="79" t="s">
+      <c r="E19" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="79" t="s">
+      <c r="F19" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="80" t="s">
+      <c r="G19" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="89" t="s">
+      <c r="H19" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="87" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="J18" s="79" t="s">
+      <c r="I19" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="79" t="s">
+      <c r="L19" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="L18" s="80" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B19" s="95"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="80"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="26">
-        <v>6</v>
-      </c>
-      <c r="D20" s="28">
-        <v>6</v>
-      </c>
-      <c r="E20" s="28">
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="100"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="91"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="26">
+        <v>7</v>
+      </c>
+      <c r="D21" s="28">
+        <v>7</v>
+      </c>
+      <c r="E21" s="28">
         <v>0</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="2">
-        <v>6</v>
-      </c>
-      <c r="K20" s="28">
-        <v>6</v>
-      </c>
-      <c r="L20" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="I21" s="3"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="I22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="C6:C14"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="B4:B5"/>
@@ -3220,6 +3364,19 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3228,6 +3385,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -3371,22 +3543,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153A5999-B236-48B1-944C-C5EB94545735}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3402,21 +3576,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>